--- a/Health/Healthcare Ranking/HealthCareRanking2020.xlsx
+++ b/Health/Healthcare Ranking/HealthCareRanking2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Healthcare Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F5CEBC-1579-4858-8678-34A3835A6093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839506DC-8123-4345-ADFF-BBE66505C2D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HCRanking2020" sheetId="1" r:id="rId1"/>
@@ -343,8 +343,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +479,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,12 +665,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,7 +830,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1184,11 +1185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
